--- a/Jogos_do_Dia/2023-12-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>3.59</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
         <v>2.7</v>
@@ -718,10 +718,10 @@
         <v>3.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>1.66</v>
@@ -830,13 +830,13 @@
         <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -969,13 +969,13 @@
         <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="K4" t="n">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>3.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1108,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.24</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.27</v>
@@ -1135,10 +1135,10 @@
         <v>4.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.68</v>
@@ -1247,13 +1247,13 @@
         <v>3.74</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K6" t="n">
-        <v>2.89</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.36</v>
@@ -1274,10 +1274,10 @@
         <v>3.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.65</v>
@@ -1383,16 +1383,16 @@
         <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.25</v>
@@ -1413,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1464,28 +1464,28 @@
         <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>2.53</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
         <v>1.5</v>
@@ -1646,124 +1646,124 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P9" t="n">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>3.7</v>
+        <v>2.89</v>
       </c>
       <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.8</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
         <v>1.31</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.89</v>
+        <v>1.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AF9" t="n">
         <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>2.95</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N10" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="O10" t="n">
         <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1.8</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.53</v>
+        <v>3.05</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.64</v>
+        <v>1.91</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11">
@@ -1924,94 +1924,94 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>2.89</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T11" t="n">
         <v>2</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="W11" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.31</v>
       </c>
-      <c r="Y11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AF11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.78</v>
+        <v>4.13</v>
       </c>
       <c r="AH11" t="n">
         <v>1.23</v>
@@ -2063,124 +2063,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.05</v>
+        <v>2.53</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.91</v>
+        <v>2.64</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13">
@@ -2202,49 +2202,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.22</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.75</v>
@@ -2253,79 +2253,79 @@
         <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="X13" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.95</v>
+        <v>1.76</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.4</v>
+        <v>0.89</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.13</v>
+        <v>2.32</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,134 +2337,134 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="S14" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.23</v>
       </c>
-      <c r="X14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AI14" t="n">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,128 +2476,128 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="M15" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="N15" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM15" t="n">
         <v>2.1</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -673,130 +673,130 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rogaška</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N2" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>9.699999999999999</v>
+        <v>12.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R2" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X2" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.21</v>
+        <v>2.37</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.65</v>
+        <v>3.14</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -812,124 +812,124 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.55</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1.23</v>
       </c>
-      <c r="R3" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AD3" t="n">
-        <v>3.55</v>
+        <v>2.69</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.21</v>
+        <v>5.7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -951,22 +951,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="J4" t="n">
         <v>2.15</v>
@@ -975,25 +975,25 @@
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>12.25</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
         <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.75</v>
@@ -1002,61 +1002,61 @@
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AK4" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="AN4" t="n">
         <v>2</v>
@@ -1065,16 +1065,16 @@
         <v>1.8</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1082,138 +1082,138 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.02</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X5" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.14</v>
+        <v>3.04</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.34</v>
+        <v>2.64</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.47</v>
+        <v>1.98</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1221,138 +1221,138 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.85</v>
+        <v>4.04</v>
       </c>
       <c r="H6" t="n">
-        <v>2.33</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>3.74</v>
+        <v>2.53</v>
       </c>
       <c r="J6" t="n">
-        <v>2.15</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.36</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1360,129 +1360,129 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.05</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>3.38</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3.78</v>
       </c>
       <c r="M7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.25</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN7" t="n">
         <v>2.25</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.17</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.35</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1499,132 +1499,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.04</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.53</v>
+        <v>2.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.3</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="Y8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE8" t="n">
         <v>2.1</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.98</v>
+        <v>4.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="9">
@@ -1646,94 +1646,94 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>4.59</v>
       </c>
       <c r="L9" t="n">
-        <v>4.2</v>
+        <v>7.04</v>
       </c>
       <c r="M9" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N9" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
-        <v>2.89</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="X9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.31</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.78</v>
+        <v>4.13</v>
       </c>
       <c r="AH9" t="n">
         <v>1.23</v>
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>4.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N10" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="R10" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="S10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.8</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.63</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.05</v>
+        <v>2.53</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.91</v>
+        <v>2.64</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -1924,130 +1924,130 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.95</v>
+        <v>1.76</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.3</v>
+        <v>0.36</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.13</v>
+        <v>2.32</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2055,132 +2055,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="M12" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="N12" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="O12" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.32</v>
       </c>
-      <c r="R12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Y12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL12" t="n">
         <v>1.83</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AM12" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="13">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2202,31 +2202,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.36</v>
@@ -2235,368 +2235,90 @@
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P13" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="R13" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC13" t="n">
         <v>1.34</v>
       </c>
-      <c r="X13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AD13" t="n">
-        <v>2.51</v>
+        <v>2.89</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.32</v>
+        <v>3.49</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AI13" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Uruguay Primera División</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45273</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Peñarol</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>England Championship</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45273</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>21</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Middlesbrough</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Hull City</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AQ15" t="n">
         <v>1.38</v>
       </c>
     </row>
